--- a/prodinfo/mea/ae/output/res20251225.xlsx
+++ b/prodinfo/mea/ae/output/res20251225.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-12-25 01:31:38</v>
+        <v>2025-12-25 01:33:15</v>
       </c>
       <c r="B2" t="str">
         <v>阿联酋</v>

--- a/prodinfo/mea/ae/output/res20251225.xlsx
+++ b/prodinfo/mea/ae/output/res20251225.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-12-25 01:33:15</v>
+        <v>2025-12-25 01:35:22</v>
       </c>
       <c r="B2" t="str">
         <v>阿联酋</v>
@@ -446,11 +446,57 @@
       </c>
       <c r="G2" t="str">
         <v>3349</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2025-12-25 01:35:26</v>
+      </c>
+      <c r="B3" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Sharaf DG</v>
+      </c>
+      <c r="D3" t="str">
+        <v>https://uae.sharafdg.com/product/apple-iphone-17-pro-256gb-cosmic-orange-middle-east-version-with-facetime</v>
+      </c>
+      <c r="E3" t="str">
+        <v>APPLE iPhone 17 Pro 12+256</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2025-12-25 01:35:32</v>
+      </c>
+      <c r="B4" t="str">
+        <v>阿联酋</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Sharaf DG</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://uae.sharafdg.com/product/huawei-pura-80-pro-512gb-12gb-ram-glazed-white-dual-sim-smartphone-1%E2%80%91inch-sensor-ultra-macro-telephoto-kunlun-glass-2-100%E2%80%AFw-supercharge</v>
+      </c>
+      <c r="E4" t="str">
+        <v>HUAWEI Pura 80 Ultra 12+512</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>3299</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>